--- a/00_additional_data/COS_surface_area.xlsx
+++ b/00_additional_data/COS_surface_area.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>chamber</t>
   </si>
@@ -64,13 +64,19 @@
     <t>chs_irr3</t>
   </si>
   <si>
-    <t>chs_con4</t>
-  </si>
-  <si>
     <t>chs_irr5</t>
   </si>
   <si>
-    <t>chs_con6</t>
+    <t>chs_ctr4</t>
+  </si>
+  <si>
+    <t>chs_ctr6</t>
+  </si>
+  <si>
+    <t>chb_irr1</t>
+  </si>
+  <si>
+    <t>chb_ctr2</t>
   </si>
 </sst>
 </file>
@@ -531,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -564,8 +570,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7">
-        <v>4</v>
+      <c r="A2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>116</v>
@@ -589,8 +595,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7">
-        <v>16</v>
+      <c r="A3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="7">
         <v>156</v>
@@ -614,8 +620,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
-        <v>4</v>
+      <c r="A4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>58</v>
@@ -639,8 +645,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7">
-        <v>16</v>
+      <c r="A5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="7">
         <v>156</v>
@@ -664,8 +670,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
-        <v>4</v>
+      <c r="A6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>183</v>
@@ -686,8 +692,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3">
-        <v>16</v>
+      <c r="A7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>101</v>
@@ -716,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -756,7 +762,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <f>PI()*(C3/2)^2</f>
@@ -771,7 +777,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B5" si="0">PI()*(C4/2)^2</f>
